--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_2_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_2_bus_resonant.xlsx
@@ -755,13 +755,13 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.938031900957445</v>
       </c>
       <c r="P2">
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739706</v>
       </c>
       <c r="R2">
         <v>-91.13019952201601</v>
@@ -814,19 +814,19 @@
         <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.2917056037512914</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644389</v>
+        <v>0.8906876332644381</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062535</v>
+        <v>7.091324389062454</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550803</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726616</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937064</v>
+        <v>3.709154423937084</v>
       </c>
       <c r="D4">
-        <v>3.709154423937064</v>
+        <v>3.709154423937084</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251911</v>
+        <v>42.82962610251933</v>
       </c>
       <c r="G4">
-        <v>42.82962610251911</v>
+        <v>42.82962610251933</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032097</v>
+        <v>0.9526279648032092</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047562</v>
+        <v>0.9526279648047561</v>
       </c>
       <c r="Q4">
-        <v>-1.252562210716599E-11</v>
+        <v>-1.263941018501197E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999811</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.952627964794286</v>
+        <v>0.9526279647942854</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136802</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q5">
-        <v>4.605091044665124E-10</v>
+        <v>4.603946605591408E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952627964794286</v>
+        <v>0.9526279647942854</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136801</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q6">
-        <v>4.605113375040976E-10</v>
+        <v>4.603978881413023E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1122,16 @@
         <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
         <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160747</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1184,13 +1184,13 @@
         <v>0.7617779018710715</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869526</v>
+        <v>0.9348070984869521</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267035</v>
+        <v>19.43181595267036</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665022</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675504</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="D4">
-        <v>1.763086650675504</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744276</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="G4">
-        <v>20.35837104744276</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551811</v>
+        <v>0.6233452632551807</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011541</v>
+        <v>0.9229411060011535</v>
       </c>
       <c r="Q4">
         <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376844</v>
       </c>
       <c r="S4">
-        <v>160.9543898286496</v>
+        <v>160.9543898286497</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1299,19 +1299,19 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568742</v>
+        <v>0.6233452632568738</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067902</v>
       </c>
       <c r="Q5">
-        <v>16.2566545496234</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1358,19 +1358,19 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568742</v>
+        <v>0.6233452632568738</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067902</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962341</v>
+        <v>16.2566545496234</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
   </sheetData>
@@ -1489,16 +1489,16 @@
         <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667627</v>
       </c>
       <c r="P2">
         <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101545</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160747</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1551,13 +1551,13 @@
         <v>0.7617779018710715</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869526</v>
+        <v>0.9348070984869521</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267035</v>
+        <v>19.43181595267036</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665022</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675504</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="D4">
-        <v>1.763086650675504</v>
+        <v>1.763086650675508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744276</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="G4">
-        <v>20.35837104744276</v>
+        <v>20.35837104744281</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551811</v>
+        <v>0.6233452632551807</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011541</v>
+        <v>0.9229411060011535</v>
       </c>
       <c r="Q4">
         <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376844</v>
       </c>
       <c r="S4">
-        <v>160.9543898286496</v>
+        <v>160.9543898286497</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1666,19 +1666,19 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568742</v>
+        <v>0.6233452632568738</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067902</v>
       </c>
       <c r="Q5">
-        <v>16.2566545496234</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1725,19 +1725,19 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568742</v>
+        <v>0.6233452632568738</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067902</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962341</v>
+        <v>16.2566545496234</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
-        <v>160.9543898286222</v>
+        <v>160.9543898286223</v>
       </c>
     </row>
   </sheetData>
@@ -1856,16 +1856,16 @@
         <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525414034</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457219</v>
+        <v>0.9468598309457227</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808856</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331508</v>
       </c>
       <c r="S2">
         <v>153.3606354236809</v>
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370795</v>
+        <v>0.9900703401370777</v>
       </c>
       <c r="O3">
-        <v>0.361720183503011</v>
+        <v>0.3617201835030135</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411124</v>
+        <v>0.7649715466411147</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274438</v>
+        <v>8.15088868427465</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241881</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833643</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515525</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="D4">
-        <v>3.119085825515525</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973869</v>
+        <v>36.01610081973836</v>
       </c>
       <c r="G4">
-        <v>36.01610081973869</v>
+        <v>36.01610081973836</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.866025403788006</v>
+        <v>0.8660254037880044</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.866025403788335</v>
+        <v>0.8660254037883361</v>
       </c>
       <c r="Q4">
-        <v>1.722956972631706E-10</v>
+        <v>1.726353700669025E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998191</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798933</v>
+        <v>0.8660254037798918</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964474</v>
+        <v>0.8660254037964487</v>
       </c>
       <c r="Q5">
-        <v>1.080526531739429E-09</v>
+        <v>1.080875584454217E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989109</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798933</v>
+        <v>0.8660254037798917</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964474</v>
+        <v>0.8660254037964485</v>
       </c>
       <c r="Q6">
-        <v>1.080519100651226E-09</v>
+        <v>1.080867337655411E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989109</v>
       </c>
     </row>
   </sheetData>
@@ -2223,16 +2223,16 @@
         <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525414034</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457219</v>
+        <v>0.9468598309457227</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808856</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331508</v>
       </c>
       <c r="S2">
         <v>153.3606354236809</v>
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370795</v>
+        <v>0.9900703401370777</v>
       </c>
       <c r="O3">
-        <v>0.361720183503011</v>
+        <v>0.3617201835030135</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411124</v>
+        <v>0.7649715466411147</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274438</v>
+        <v>8.15088868427465</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241881</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833643</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515525</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="D4">
-        <v>3.119085825515525</v>
+        <v>3.119085825515497</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973869</v>
+        <v>36.01610081973836</v>
       </c>
       <c r="G4">
-        <v>36.01610081973869</v>
+        <v>36.01610081973836</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.866025403788006</v>
+        <v>0.8660254037880044</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.866025403788335</v>
+        <v>0.8660254037883361</v>
       </c>
       <c r="Q4">
-        <v>1.722956972631706E-10</v>
+        <v>1.726353700669025E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998191</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798933</v>
+        <v>0.8660254037798918</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964474</v>
+        <v>0.8660254037964487</v>
       </c>
       <c r="Q5">
-        <v>1.080526531739429E-09</v>
+        <v>1.080875584454217E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989109</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798933</v>
+        <v>0.8660254037798917</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964474</v>
+        <v>0.8660254037964485</v>
       </c>
       <c r="Q6">
-        <v>1.080519100651226E-09</v>
+        <v>1.080867337655411E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989109</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359252</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095901</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222122</v>
+        <v>0.9681777323222123</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751168</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.708687695956659</v>
+        <v>0.7086876959566596</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941328</v>
+        <v>0.8449321159941335</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474867</v>
+        <v>19.61176266474871</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729076</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -2672,52 +2672,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092603</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="D4">
-        <v>1.518298439092603</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040606</v>
+        <v>17.531800250406</v>
       </c>
       <c r="G4">
-        <v>17.53180025040606</v>
+        <v>17.531800250406</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.95733996751196</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775458</v>
+        <v>0.5367995610775474</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863317</v>
+        <v>0.8529812840863328</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155593</v>
+        <v>15.932886971556</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495562</v>
       </c>
       <c r="S4">
         <v>162.0554462537874</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083641</v>
       </c>
       <c r="O5">
-        <v>0.5367995610863938</v>
+        <v>0.5367995610863956</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931515</v>
+        <v>0.8529812840931524</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196763</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S5">
         <v>162.0554462535384</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083641</v>
       </c>
       <c r="O6">
-        <v>0.5367995610863938</v>
+        <v>0.5367995610863956</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931514</v>
+        <v>0.8529812840931523</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196763</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S6">
         <v>162.0554462535384</v>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359252</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095901</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222122</v>
+        <v>0.9681777323222123</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751168</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.708687695956659</v>
+        <v>0.7086876959566596</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941328</v>
+        <v>0.8449321159941335</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474867</v>
+        <v>19.61176266474871</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729076</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -3039,52 +3039,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092603</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="D4">
-        <v>1.518298439092603</v>
+        <v>1.518298439092598</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040606</v>
+        <v>17.531800250406</v>
       </c>
       <c r="G4">
-        <v>17.53180025040606</v>
+        <v>17.531800250406</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.95733996751196</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775458</v>
+        <v>0.5367995610775474</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863317</v>
+        <v>0.8529812840863328</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155593</v>
+        <v>15.932886971556</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495562</v>
       </c>
       <c r="S4">
         <v>162.0554462537874</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083641</v>
       </c>
       <c r="O5">
-        <v>0.5367995610863938</v>
+        <v>0.5367995610863956</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931515</v>
+        <v>0.8529812840931524</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196763</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S5">
         <v>162.0554462535384</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083641</v>
       </c>
       <c r="O6">
-        <v>0.5367995610863938</v>
+        <v>0.5367995610863956</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931514</v>
+        <v>0.8529812840931523</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196763</v>
+        <v>15.93288697196771</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481947</v>
       </c>
       <c r="S6">
         <v>162.0554462535384</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.008833855582516</v>
+        <v>1.100880609482862</v>
       </c>
       <c r="O2">
-        <v>1.10000002384655</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.053165608606339</v>
+        <v>1.100991677925776</v>
       </c>
       <c r="Q2">
-        <v>30.26478333125831</v>
+        <v>29.96686476907433</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.8273550685458</v>
+        <v>150.023112080329</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6204999492504033</v>
+        <v>1.104799120008537</v>
       </c>
       <c r="O3">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P3">
-        <v>0.9561632715789636</v>
+        <v>1.105079982388818</v>
       </c>
       <c r="Q3">
-        <v>29.91387051305927</v>
+        <v>29.83954107026656</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999648</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>124.2283338259025</v>
+        <v>150.1350825948276</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.149820960866113</v>
+        <v>0.04938554098976382</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>47.91800497689604</v>
+        <v>0.5702551076903088</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>0.9244970634356758</v>
       </c>
       <c r="I4">
-        <v>1.92293885555914</v>
+        <v>-777.3783108350412</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686426</v>
+        <v>0.6277319161819395</v>
       </c>
       <c r="K4">
-        <v>2.898438697960038</v>
+        <v>2.898438697956546</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640396</v>
+        <v>0.627731916374652</v>
       </c>
       <c r="M4">
-        <v>2.898438697959971</v>
+        <v>2.898438697959377</v>
       </c>
       <c r="N4">
-        <v>0.5032022935223092</v>
+        <v>1.105420283918073</v>
       </c>
       <c r="O4">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P4">
-        <v>0.8536436911147189</v>
+        <v>1.106981740245114</v>
       </c>
       <c r="Q4">
-        <v>41.56601328844691</v>
+        <v>29.7441474513637</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>116.1703166090955</v>
+        <v>150.1147196215183</v>
       </c>
       <c r="T4">
-        <v>4.149820960866114</v>
+        <v>0.0493855409897638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5032022935341021</v>
+        <v>1.105420283917916</v>
       </c>
       <c r="O5">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P5">
-        <v>0.8536436911056424</v>
+        <v>1.10698174024505</v>
       </c>
       <c r="Q5">
-        <v>41.56601328914909</v>
+        <v>29.74414745136277</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999623</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>116.1703166097487</v>
+        <v>150.1147196215108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5032022935341021</v>
+        <v>1.105420283917915</v>
       </c>
       <c r="O6">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P6">
-        <v>0.8536436911056426</v>
+        <v>1.10698174024505</v>
       </c>
       <c r="Q6">
-        <v>41.56601328914906</v>
+        <v>29.74414745136277</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>116.1703166097487</v>
+        <v>150.1147196215108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.008833855582516</v>
+        <v>1.100880609482862</v>
       </c>
       <c r="O2">
-        <v>1.10000002384655</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.053165608606339</v>
+        <v>1.100991677925776</v>
       </c>
       <c r="Q2">
-        <v>30.26478333125831</v>
+        <v>29.96686476907433</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.8273550685458</v>
+        <v>150.023112080329</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6204999492504033</v>
+        <v>1.104799120008537</v>
       </c>
       <c r="O3">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P3">
-        <v>0.9561632715789636</v>
+        <v>1.105079982388818</v>
       </c>
       <c r="Q3">
-        <v>29.91387051305927</v>
+        <v>29.83954107026656</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999648</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>124.2283338259025</v>
+        <v>150.1350825948276</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.149820960866113</v>
+        <v>0.04938554098976382</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>47.91800497689604</v>
+        <v>0.5702551076903088</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>0.9244970634356758</v>
       </c>
       <c r="I4">
-        <v>1.92293885555914</v>
+        <v>-777.3783108350412</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686426</v>
+        <v>0.6277319161819395</v>
       </c>
       <c r="K4">
-        <v>2.898438697960038</v>
+        <v>2.898438697956546</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640396</v>
+        <v>0.627731916374652</v>
       </c>
       <c r="M4">
-        <v>2.898438697959971</v>
+        <v>2.898438697959377</v>
       </c>
       <c r="N4">
-        <v>0.5032022935223092</v>
+        <v>1.105420283918073</v>
       </c>
       <c r="O4">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P4">
-        <v>0.8536436911147189</v>
+        <v>1.106981740245114</v>
       </c>
       <c r="Q4">
-        <v>41.56601328844691</v>
+        <v>29.7441474513637</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>116.1703166090955</v>
+        <v>150.1147196215183</v>
       </c>
       <c r="T4">
-        <v>4.149820960866114</v>
+        <v>0.0493855409897638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5032022935341021</v>
+        <v>1.105420283917916</v>
       </c>
       <c r="O5">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P5">
-        <v>0.8536436911056424</v>
+        <v>1.10698174024505</v>
       </c>
       <c r="Q5">
-        <v>41.56601328914909</v>
+        <v>29.74414745136277</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999623</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>116.1703166097487</v>
+        <v>150.1147196215108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5032022935341021</v>
+        <v>1.105420283917915</v>
       </c>
       <c r="O6">
-        <v>1.100000023851071</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P6">
-        <v>0.8536436911056426</v>
+        <v>1.10698174024505</v>
       </c>
       <c r="Q6">
-        <v>41.56601328914906</v>
+        <v>29.74414745136277</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>116.1703166097487</v>
+        <v>150.1147196215108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072423282665989</v>
+        <v>1.100884774655212</v>
       </c>
       <c r="O2">
-        <v>1.10000002384333</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.088847226094522</v>
+        <v>1.101019876261875</v>
       </c>
       <c r="Q2">
-        <v>29.85534970391853</v>
+        <v>29.96529461367794</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6717979843438</v>
+        <v>150.0225133510806</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9563523060991543</v>
+        <v>1.104829722778975</v>
       </c>
       <c r="O3">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.055737662772305</v>
+        <v>1.105230977707329</v>
       </c>
       <c r="Q3">
-        <v>28.68911830595835</v>
+        <v>29.83139899610386</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>142.6227489604476</v>
+        <v>150.1323460409699</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.25966968104685</v>
+        <v>0.05035188117565594</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.54541258884818</v>
+        <v>0.5814134430193801</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>0.9244970634356758</v>
       </c>
       <c r="I4">
-        <v>1.92293885555914</v>
+        <v>-777.3783108350412</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686426</v>
+        <v>0.6277319161819395</v>
       </c>
       <c r="K4">
-        <v>2.898438697960038</v>
+        <v>2.898438697956546</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640396</v>
+        <v>0.627731916374652</v>
       </c>
       <c r="M4">
-        <v>2.898438697959971</v>
+        <v>2.898438697959377</v>
       </c>
       <c r="N4">
-        <v>0.9132419036264655</v>
+        <v>1.105425937782338</v>
       </c>
       <c r="O4">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P4">
-        <v>1.016780042240087</v>
+        <v>1.107161628651025</v>
       </c>
       <c r="Q4">
-        <v>30.18467731504756</v>
+        <v>29.73351200963104</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>140.9309510165867</v>
+        <v>150.1096024580245</v>
       </c>
       <c r="T4">
-        <v>1.25966968104685</v>
+        <v>0.05035188117565594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9132419036291936</v>
+        <v>1.105425937782178</v>
       </c>
       <c r="O5">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P5">
-        <v>1.016780042238267</v>
+        <v>1.107161628650957</v>
       </c>
       <c r="Q5">
-        <v>30.18467731523447</v>
+        <v>29.73351200963025</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>140.9309510167899</v>
+        <v>150.109602458017</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9132419036291936</v>
+        <v>1.105425937782178</v>
       </c>
       <c r="O6">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P6">
-        <v>1.016780042238267</v>
+        <v>1.107161628650957</v>
       </c>
       <c r="Q6">
-        <v>30.18467731523447</v>
+        <v>29.73351200963025</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>140.9309510167899</v>
+        <v>150.109602458017</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072423282665989</v>
+        <v>1.100884774655212</v>
       </c>
       <c r="O2">
-        <v>1.10000002384333</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.088847226094522</v>
+        <v>1.101019876261875</v>
       </c>
       <c r="Q2">
-        <v>29.85534970391853</v>
+        <v>29.96529461367794</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6717979843438</v>
+        <v>150.0225133510806</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9563523060991543</v>
+        <v>1.104829722778975</v>
       </c>
       <c r="O3">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.055737662772305</v>
+        <v>1.105230977707329</v>
       </c>
       <c r="Q3">
-        <v>28.68911830595835</v>
+        <v>29.83139899610386</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>142.6227489604476</v>
+        <v>150.1323460409699</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.25966968104685</v>
+        <v>0.05035188117565594</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.54541258884818</v>
+        <v>0.5814134430193801</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>0.9244970634356758</v>
       </c>
       <c r="I4">
-        <v>1.92293885555914</v>
+        <v>-777.3783108350412</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686426</v>
+        <v>0.6277319161819395</v>
       </c>
       <c r="K4">
-        <v>2.898438697960038</v>
+        <v>2.898438697956546</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640396</v>
+        <v>0.627731916374652</v>
       </c>
       <c r="M4">
-        <v>2.898438697959971</v>
+        <v>2.898438697959377</v>
       </c>
       <c r="N4">
-        <v>0.9132419036264655</v>
+        <v>1.105425937782338</v>
       </c>
       <c r="O4">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P4">
-        <v>1.016780042240087</v>
+        <v>1.107161628651025</v>
       </c>
       <c r="Q4">
-        <v>30.18467731504756</v>
+        <v>29.73351200963104</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>140.9309510165867</v>
+        <v>150.1096024580245</v>
       </c>
       <c r="T4">
-        <v>1.25966968104685</v>
+        <v>0.05035188117565594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9132419036291936</v>
+        <v>1.105425937782178</v>
       </c>
       <c r="O5">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P5">
-        <v>1.016780042238267</v>
+        <v>1.107161628650957</v>
       </c>
       <c r="Q5">
-        <v>30.18467731523447</v>
+        <v>29.73351200963025</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>140.9309510167899</v>
+        <v>150.109602458017</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9132419036291936</v>
+        <v>1.105425937782178</v>
       </c>
       <c r="O6">
-        <v>1.100000023844969</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P6">
-        <v>1.016780042238267</v>
+        <v>1.107161628650957</v>
       </c>
       <c r="Q6">
-        <v>30.18467731523447</v>
+        <v>29.73351200963025</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>140.9309510167899</v>
+        <v>150.109602458017</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.931586605479211</v>
+        <v>1.000908413076681</v>
       </c>
       <c r="O2">
-        <v>0.9999999999960175</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="P2">
-        <v>0.9830534129004446</v>
+        <v>1.001025807733597</v>
       </c>
       <c r="Q2">
-        <v>28.93586303452625</v>
+        <v>29.96221717663637</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>146.0313693872019</v>
+        <v>150.0261289217251</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6805252939959997</v>
+        <v>1.004558433423276</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994557</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P3">
-        <v>0.9822124574637727</v>
+        <v>1.004844251168713</v>
       </c>
       <c r="Q3">
-        <v>21.47948981367166</v>
+        <v>29.83112369592315</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>130.1454419345345</v>
+        <v>150.1404678744148</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.828916332785688</v>
+        <v>0.04490814624816756</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32.66551212497492</v>
+        <v>0.5185546065037324</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419272</v>
+        <v>1.774960223874566</v>
       </c>
       <c r="I4">
-        <v>1.879505018720904</v>
+        <v>-777.3772962253485</v>
       </c>
       <c r="J4">
-        <v>1.113751880274937</v>
+        <v>1.113751880188707</v>
       </c>
       <c r="K4">
-        <v>3.00639754374555</v>
+        <v>3.006397543741884</v>
       </c>
       <c r="L4">
-        <v>1.113751880233374</v>
+        <v>1.113751880243863</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745182</v>
       </c>
       <c r="N4">
-        <v>0.5465415455385799</v>
+        <v>1.00458236673149</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994559</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P4">
-        <v>0.8636625940136905</v>
+        <v>1.007103456222908</v>
       </c>
       <c r="Q4">
-        <v>30.37919592902012</v>
+        <v>29.68261065779637</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>123.0882889740626</v>
+        <v>150.0667154601761</v>
       </c>
       <c r="T4">
-        <v>2.828916332785688</v>
+        <v>0.04490814624816756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5465415455511368</v>
+        <v>1.004582366731274</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994561</v>
+        <v>0.9999999999999492</v>
       </c>
       <c r="P5">
-        <v>0.8636625940071166</v>
+        <v>1.007103456222731</v>
       </c>
       <c r="Q5">
-        <v>30.37919592977235</v>
+        <v>29.6826106578008</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>123.0882889749171</v>
+        <v>150.0667154601677</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5465415455511368</v>
+        <v>1.004582366731274</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994561</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P6">
-        <v>0.8636625940071166</v>
+        <v>1.007103456222731</v>
       </c>
       <c r="Q6">
-        <v>30.37919592977234</v>
+        <v>29.68261065780079</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>123.0882889749171</v>
+        <v>150.0667154601677</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.931586605479211</v>
+        <v>1.000908413076681</v>
       </c>
       <c r="O2">
-        <v>0.9999999999960175</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="P2">
-        <v>0.9830534129004446</v>
+        <v>1.001025807733597</v>
       </c>
       <c r="Q2">
-        <v>28.93586303452625</v>
+        <v>29.96221717663637</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>146.0313693872019</v>
+        <v>150.0261289217251</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6805252939959997</v>
+        <v>1.004558433423276</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994557</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P3">
-        <v>0.9822124574637727</v>
+        <v>1.004844251168713</v>
       </c>
       <c r="Q3">
-        <v>21.47948981367166</v>
+        <v>29.83112369592315</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>130.1454419345345</v>
+        <v>150.1404678744148</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.828916332785688</v>
+        <v>0.04490814624816756</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>32.66551212497492</v>
+        <v>0.5185546065037324</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419272</v>
+        <v>1.774960223874566</v>
       </c>
       <c r="I4">
-        <v>1.879505018720904</v>
+        <v>-777.3772962253485</v>
       </c>
       <c r="J4">
-        <v>1.113751880274937</v>
+        <v>1.113751880188707</v>
       </c>
       <c r="K4">
-        <v>3.00639754374555</v>
+        <v>3.006397543741884</v>
       </c>
       <c r="L4">
-        <v>1.113751880233374</v>
+        <v>1.113751880243863</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745182</v>
       </c>
       <c r="N4">
-        <v>0.5465415455385799</v>
+        <v>1.00458236673149</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994559</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P4">
-        <v>0.8636625940136905</v>
+        <v>1.007103456222908</v>
       </c>
       <c r="Q4">
-        <v>30.37919592902012</v>
+        <v>29.68261065779637</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>123.0882889740626</v>
+        <v>150.0667154601761</v>
       </c>
       <c r="T4">
-        <v>2.828916332785688</v>
+        <v>0.04490814624816756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5465415455511368</v>
+        <v>1.004582366731274</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994561</v>
+        <v>0.9999999999999492</v>
       </c>
       <c r="P5">
-        <v>0.8636625940071166</v>
+        <v>1.007103456222731</v>
       </c>
       <c r="Q5">
-        <v>30.37919592977235</v>
+        <v>29.6826106578008</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>123.0882889749171</v>
+        <v>150.0667154601677</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5465415455511368</v>
+        <v>1.004582366731274</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994561</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P6">
-        <v>0.8636625940071166</v>
+        <v>1.007103456222731</v>
       </c>
       <c r="Q6">
-        <v>30.37919592977234</v>
+        <v>29.68261065780079</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>123.0882889749171</v>
+        <v>150.0667154601677</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9745895916511383</v>
+        <v>1.000912571645175</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986113</v>
+        <v>0.9999999999999966</v>
       </c>
       <c r="P2">
-        <v>0.9918994358358514</v>
+        <v>1.001054895059772</v>
       </c>
       <c r="Q2">
-        <v>29.70753513680669</v>
+        <v>29.96043107083126</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.5843895960568</v>
+        <v>150.0254402432618</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8789385372087558</v>
+        <v>1.004586719658012</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998921</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9730472466707978</v>
+        <v>1.004987717589249</v>
       </c>
       <c r="Q3">
-        <v>28.01619608322942</v>
+        <v>29.82258848151257</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>142.8856671190323</v>
+        <v>150.1375538034821</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.036210343459111</v>
+        <v>0.04578492090063499</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.96512641466385</v>
+        <v>0.5286787281361467</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419272</v>
+        <v>1.774960223874566</v>
       </c>
       <c r="I4">
-        <v>1.879505018720904</v>
+        <v>-777.3772962253485</v>
       </c>
       <c r="J4">
-        <v>1.113751880274937</v>
+        <v>1.113751880188707</v>
       </c>
       <c r="K4">
-        <v>3.00639754374555</v>
+        <v>3.006397543741884</v>
       </c>
       <c r="L4">
-        <v>1.113751880233374</v>
+        <v>1.113751880243863</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745182</v>
       </c>
       <c r="N4">
-        <v>0.8342731432240588</v>
+        <v>1.00455867441655</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998922</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9187000811234595</v>
+        <v>1.007264381847381</v>
       </c>
       <c r="Q4">
-        <v>30.70548526244765</v>
+        <v>29.67117831238034</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999629</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>141.3328683155829</v>
+        <v>150.0597850133924</v>
       </c>
       <c r="T4">
-        <v>1.036210343459111</v>
+        <v>0.04578492090063499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8342731432288067</v>
+        <v>1.004558674416331</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998922</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.918700081122933</v>
+        <v>1.007264381847199</v>
       </c>
       <c r="Q5">
-        <v>30.70548526260901</v>
+        <v>29.6711783123851</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>141.3328683159116</v>
+        <v>150.0597850133841</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8342731432288067</v>
+        <v>1.004558674416331</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998922</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.918700081122933</v>
+        <v>1.007264381847199</v>
       </c>
       <c r="Q6">
-        <v>30.70548526260901</v>
+        <v>29.6711783123851</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>141.3328683159116</v>
+        <v>150.0597850133841</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9745895916511383</v>
+        <v>1.000912571645175</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986113</v>
+        <v>0.9999999999999966</v>
       </c>
       <c r="P2">
-        <v>0.9918994358358514</v>
+        <v>1.001054895059772</v>
       </c>
       <c r="Q2">
-        <v>29.70753513680669</v>
+        <v>29.96043107083126</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.5843895960568</v>
+        <v>150.0254402432618</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8789385372087558</v>
+        <v>1.004586719658012</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998921</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9730472466707978</v>
+        <v>1.004987717589249</v>
       </c>
       <c r="Q3">
-        <v>28.01619608322942</v>
+        <v>29.82258848151257</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>142.8856671190323</v>
+        <v>150.1375538034821</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.036210343459111</v>
+        <v>0.04578492090063499</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.96512641466385</v>
+        <v>0.5286787281361467</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419272</v>
+        <v>1.774960223874566</v>
       </c>
       <c r="I4">
-        <v>1.879505018720904</v>
+        <v>-777.3772962253485</v>
       </c>
       <c r="J4">
-        <v>1.113751880274937</v>
+        <v>1.113751880188707</v>
       </c>
       <c r="K4">
-        <v>3.00639754374555</v>
+        <v>3.006397543741884</v>
       </c>
       <c r="L4">
-        <v>1.113751880233374</v>
+        <v>1.113751880243863</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745182</v>
       </c>
       <c r="N4">
-        <v>0.8342731432240588</v>
+        <v>1.00455867441655</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998922</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9187000811234595</v>
+        <v>1.007264381847381</v>
       </c>
       <c r="Q4">
-        <v>30.70548526244765</v>
+        <v>29.67117831238034</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999629</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>141.3328683155829</v>
+        <v>150.0597850133924</v>
       </c>
       <c r="T4">
-        <v>1.036210343459111</v>
+        <v>0.04578492090063499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8342731432288067</v>
+        <v>1.004558674416331</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998922</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.918700081122933</v>
+        <v>1.007264381847199</v>
       </c>
       <c r="Q5">
-        <v>30.70548526260901</v>
+        <v>29.6711783123851</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>141.3328683159116</v>
+        <v>150.0597850133841</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8342731432288067</v>
+        <v>1.004558674416331</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998922</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.918700081122933</v>
+        <v>1.007264381847199</v>
       </c>
       <c r="Q6">
-        <v>30.70548526260901</v>
+        <v>29.6711783123851</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>141.3328683159116</v>
+        <v>150.0597850133841</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.03232380213766</v>
+        <v>1.070323813032184</v>
       </c>
       <c r="O2">
-        <v>0.9380319009589604</v>
+        <v>0.9380319009574349</v>
       </c>
       <c r="P2">
-        <v>1.041060721281419</v>
+        <v>1.053747136333912</v>
       </c>
       <c r="Q2">
-        <v>25.29165227357869</v>
+        <v>25.98203382652474</v>
       </c>
       <c r="R2">
-        <v>-91.13019952198914</v>
+        <v>-91.13019952201572</v>
       </c>
       <c r="S2">
-        <v>151.4960885767969</v>
+        <v>153.5745643928308</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8823709418052449</v>
+        <v>1.033008916496481</v>
       </c>
       <c r="O3">
-        <v>0.291705603751629</v>
+        <v>0.2917056037512566</v>
       </c>
       <c r="P3">
-        <v>0.7915484135795001</v>
+        <v>0.8920998189840837</v>
       </c>
       <c r="Q3">
-        <v>-1.744075084754688</v>
+        <v>7.077857737702337</v>
       </c>
       <c r="R3">
-        <v>-119.1713773545983</v>
+        <v>-119.1713773550745</v>
       </c>
       <c r="S3">
-        <v>159.1629785268994</v>
+        <v>171.7881374685672</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.029680722715545</v>
+        <v>3.711791658092677</v>
       </c>
       <c r="D4">
-        <v>2.964875042908854</v>
+        <v>3.706555979527544</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.07775038395383</v>
+        <v>42.86007825951229</v>
       </c>
       <c r="G4">
-        <v>34.2354280827406</v>
+        <v>42.79962185093289</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>0.7585622007332203</v>
+        <v>0.9544066678304373</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7585622007379985</v>
+        <v>0.9544066678320351</v>
       </c>
       <c r="Q4">
-        <v>-12.56153100582881</v>
+        <v>-0.02330355696782261</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>167.4384689941965</v>
+        <v>179.9766964430499</v>
       </c>
       <c r="T4">
-        <v>3.62560866920434</v>
+        <v>0.02455447957869451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7585622007218868</v>
+        <v>0.9544066678214785</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7585622007475067</v>
+        <v>0.9544066678409303</v>
       </c>
       <c r="Q5">
-        <v>-12.5615310049619</v>
+        <v>-0.02330355649728897</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>167.4384689941969</v>
+        <v>179.9766964425765</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7585622007218868</v>
+        <v>0.9544066678214785</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7585622007475067</v>
+        <v>0.9544066678409303</v>
       </c>
       <c r="Q6">
-        <v>-12.5615310049619</v>
+        <v>-0.02330355649728863</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>167.4384689941969</v>
+        <v>179.9766964425765</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.03232380213766</v>
+        <v>1.070323813032184</v>
       </c>
       <c r="O2">
-        <v>0.9380319009589604</v>
+        <v>0.9380319009574349</v>
       </c>
       <c r="P2">
-        <v>1.041060721281419</v>
+        <v>1.053747136333912</v>
       </c>
       <c r="Q2">
-        <v>25.29165227357869</v>
+        <v>25.98203382652474</v>
       </c>
       <c r="R2">
-        <v>-91.13019952198914</v>
+        <v>-91.13019952201572</v>
       </c>
       <c r="S2">
-        <v>151.4960885767969</v>
+        <v>153.5745643928308</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8823709418052449</v>
+        <v>1.033008916496481</v>
       </c>
       <c r="O3">
-        <v>0.291705603751629</v>
+        <v>0.2917056037512566</v>
       </c>
       <c r="P3">
-        <v>0.7915484135795001</v>
+        <v>0.8920998189840837</v>
       </c>
       <c r="Q3">
-        <v>-1.744075084754688</v>
+        <v>7.077857737702337</v>
       </c>
       <c r="R3">
-        <v>-119.1713773545983</v>
+        <v>-119.1713773550745</v>
       </c>
       <c r="S3">
-        <v>159.1629785268994</v>
+        <v>171.7881374685672</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.029680722715545</v>
+        <v>3.711791658092677</v>
       </c>
       <c r="D4">
-        <v>2.964875042908854</v>
+        <v>3.706555979527544</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.07775038395383</v>
+        <v>42.86007825951229</v>
       </c>
       <c r="G4">
-        <v>34.2354280827406</v>
+        <v>42.79962185093289</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>0.7585622007332203</v>
+        <v>0.9544066678304373</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7585622007379985</v>
+        <v>0.9544066678320351</v>
       </c>
       <c r="Q4">
-        <v>-12.56153100582881</v>
+        <v>-0.02330355696782261</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>167.4384689941965</v>
+        <v>179.9766964430499</v>
       </c>
       <c r="T4">
-        <v>3.62560866920434</v>
+        <v>0.02455447957869451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7585622007218868</v>
+        <v>0.9544066678214785</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7585622007475067</v>
+        <v>0.9544066678409303</v>
       </c>
       <c r="Q5">
-        <v>-12.5615310049619</v>
+        <v>-0.02330355649728897</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>167.4384689941969</v>
+        <v>179.9766964425765</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7585622007218868</v>
+        <v>0.9544066678214785</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7585622007475067</v>
+        <v>0.9544066678409303</v>
       </c>
       <c r="Q6">
-        <v>-12.5615310049619</v>
+        <v>-0.02330355649728863</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>167.4384689941969</v>
+        <v>179.9766964425765</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087259756883147</v>
+        <v>1.100401629806279</v>
       </c>
       <c r="O2">
-        <v>1.056966443490333</v>
+        <v>1.056966443489688</v>
       </c>
       <c r="P2">
-        <v>1.07413119842321</v>
+        <v>1.078767031292654</v>
       </c>
       <c r="Q2">
-        <v>28.55226370567976</v>
+        <v>28.69223141505149</v>
       </c>
       <c r="R2">
-        <v>-91.3429255612722</v>
+        <v>-91.34292556127392</v>
       </c>
       <c r="S2">
-        <v>150.0034711638952</v>
+        <v>150.6732823032735</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04945564137057</v>
+        <v>1.115396148264729</v>
       </c>
       <c r="O3">
-        <v>0.8910570420399749</v>
+        <v>0.8910570420388056</v>
       </c>
       <c r="P3">
-        <v>0.9643300658143859</v>
+        <v>0.9865778154888101</v>
       </c>
       <c r="Q3">
-        <v>21.90846248769743</v>
+        <v>23.21966854591475</v>
       </c>
       <c r="R3">
-        <v>-99.1686792048752</v>
+        <v>-99.16867920489071</v>
       </c>
       <c r="S3">
-        <v>149.5923569291055</v>
+        <v>153.518791009915</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.383090658670758</v>
+        <v>1.141572948205285</v>
       </c>
       <c r="D4">
-        <v>1.175859552050429</v>
+        <v>1.126958191085449</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.97055528194438</v>
+        <v>13.18174897891832</v>
       </c>
       <c r="G4">
-        <v>13.57765657811016</v>
+        <v>13.01299229977275</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>1.006515015002834</v>
+        <v>1.094590884794376</v>
       </c>
       <c r="O4">
-        <v>0.8020156209380076</v>
+        <v>0.8020156209369419</v>
       </c>
       <c r="P4">
-        <v>0.9270360094836515</v>
+        <v>0.9722758954165277</v>
       </c>
       <c r="Q4">
-        <v>20.04770672173289</v>
+        <v>21.15696961139125</v>
       </c>
       <c r="R4">
-        <v>-99.52967390014052</v>
+        <v>-99.52967390016407</v>
       </c>
       <c r="S4">
-        <v>151.2487257508933</v>
+        <v>155.9727015572424</v>
       </c>
       <c r="T4">
-        <v>1.202222301684522</v>
+        <v>0.0247925641096575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00651501500085</v>
+        <v>1.094590884791522</v>
       </c>
       <c r="O5">
-        <v>0.8020156209390967</v>
+        <v>0.802015620938031</v>
       </c>
       <c r="P5">
-        <v>0.9270360094865101</v>
+        <v>0.9722758954201258</v>
       </c>
       <c r="Q5">
-        <v>20.0477067219587</v>
+        <v>21.15696961151131</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962667</v>
+        <v>-99.52967389965023</v>
       </c>
       <c r="S5">
-        <v>151.2487257510453</v>
+        <v>155.9727015572624</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00651501500085</v>
+        <v>1.094590884791522</v>
       </c>
       <c r="O6">
-        <v>0.8020156209390967</v>
+        <v>0.8020156209380311</v>
       </c>
       <c r="P6">
-        <v>0.9270360094865101</v>
+        <v>0.9722758954201258</v>
       </c>
       <c r="Q6">
-        <v>20.0477067219587</v>
+        <v>21.15696961151132</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962667</v>
+        <v>-99.52967389965022</v>
       </c>
       <c r="S6">
-        <v>151.2487257510453</v>
+        <v>155.9727015572624</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087259756883147</v>
+        <v>1.100401629806279</v>
       </c>
       <c r="O2">
-        <v>1.056966443490333</v>
+        <v>1.056966443489688</v>
       </c>
       <c r="P2">
-        <v>1.07413119842321</v>
+        <v>1.078767031292654</v>
       </c>
       <c r="Q2">
-        <v>28.55226370567976</v>
+        <v>28.69223141505149</v>
       </c>
       <c r="R2">
-        <v>-91.3429255612722</v>
+        <v>-91.34292556127392</v>
       </c>
       <c r="S2">
-        <v>150.0034711638952</v>
+        <v>150.6732823032735</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04945564137057</v>
+        <v>1.115396148264729</v>
       </c>
       <c r="O3">
-        <v>0.8910570420399749</v>
+        <v>0.8910570420388056</v>
       </c>
       <c r="P3">
-        <v>0.9643300658143859</v>
+        <v>0.9865778154888101</v>
       </c>
       <c r="Q3">
-        <v>21.90846248769743</v>
+        <v>23.21966854591475</v>
       </c>
       <c r="R3">
-        <v>-99.1686792048752</v>
+        <v>-99.16867920489071</v>
       </c>
       <c r="S3">
-        <v>149.5923569291055</v>
+        <v>153.518791009915</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.383090658670758</v>
+        <v>1.141572948205285</v>
       </c>
       <c r="D4">
-        <v>1.175859552050429</v>
+        <v>1.126958191085449</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.97055528194438</v>
+        <v>13.18174897891832</v>
       </c>
       <c r="G4">
-        <v>13.57765657811016</v>
+        <v>13.01299229977275</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>1.006515015002834</v>
+        <v>1.094590884794376</v>
       </c>
       <c r="O4">
-        <v>0.8020156209380076</v>
+        <v>0.8020156209369419</v>
       </c>
       <c r="P4">
-        <v>0.9270360094836515</v>
+        <v>0.9722758954165277</v>
       </c>
       <c r="Q4">
-        <v>20.04770672173289</v>
+        <v>21.15696961139125</v>
       </c>
       <c r="R4">
-        <v>-99.52967390014052</v>
+        <v>-99.52967390016407</v>
       </c>
       <c r="S4">
-        <v>151.2487257508933</v>
+        <v>155.9727015572424</v>
       </c>
       <c r="T4">
-        <v>1.202222301684522</v>
+        <v>0.0247925641096575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00651501500085</v>
+        <v>1.094590884791522</v>
       </c>
       <c r="O5">
-        <v>0.8020156209390967</v>
+        <v>0.802015620938031</v>
       </c>
       <c r="P5">
-        <v>0.9270360094865101</v>
+        <v>0.9722758954201258</v>
       </c>
       <c r="Q5">
-        <v>20.0477067219587</v>
+        <v>21.15696961151131</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962667</v>
+        <v>-99.52967389965023</v>
       </c>
       <c r="S5">
-        <v>151.2487257510453</v>
+        <v>155.9727015572624</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00651501500085</v>
+        <v>1.094590884791522</v>
       </c>
       <c r="O6">
-        <v>0.8020156209390967</v>
+        <v>0.8020156209380311</v>
       </c>
       <c r="P6">
-        <v>0.9270360094865101</v>
+        <v>0.9722758954201258</v>
       </c>
       <c r="Q6">
-        <v>20.0477067219587</v>
+        <v>21.15696961151132</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962667</v>
+        <v>-99.52967389965022</v>
       </c>
       <c r="S6">
-        <v>151.2487257510453</v>
+        <v>155.9727015572624</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9611892257882306</v>
+        <v>0.9824348152599648</v>
       </c>
       <c r="O2">
-        <v>0.8500049525398483</v>
+        <v>0.8500049525413994</v>
       </c>
       <c r="P2">
-        <v>0.9459470461745229</v>
+        <v>0.9471207714712431</v>
       </c>
       <c r="Q2">
-        <v>24.73024965416854</v>
+        <v>25.60142185198898</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332195</v>
+        <v>-92.65381631331432</v>
       </c>
       <c r="S2">
-        <v>151.8017161126639</v>
+        <v>153.366617973685</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9249492145725791</v>
+        <v>0.9913954283789168</v>
       </c>
       <c r="O3">
-        <v>0.361720183503275</v>
+        <v>0.3617201835029473</v>
       </c>
       <c r="P3">
-        <v>0.7405935968722479</v>
+        <v>0.7663096063876198</v>
       </c>
       <c r="Q3">
-        <v>1.78316902584584</v>
+        <v>8.135925348634496</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241744</v>
+        <v>-129.0915432241828</v>
       </c>
       <c r="S3">
-        <v>160.1098218943982</v>
+        <v>169.4397496661967</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.925616777675333</v>
+        <v>3.123012277693343</v>
       </c>
       <c r="D4">
-        <v>2.484202367606449</v>
+        <v>3.11519441808184</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.3291180665233</v>
+        <v>36.06143958417515</v>
       </c>
       <c r="G4">
-        <v>28.68509811318178</v>
+        <v>35.97116671715141</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.7604463063228202</v>
+        <v>0.8677016070599995</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7604463063235449</v>
+        <v>0.8677016070604247</v>
       </c>
       <c r="Q4">
-        <v>-8.980984779835504</v>
+        <v>-0.04137664347883795</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.0190152197314</v>
+        <v>179.9586233561692</v>
       </c>
       <c r="T4">
-        <v>2.061230561857593</v>
+        <v>0.02232376349242262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.760446306313078</v>
+        <v>0.8677016070518211</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7604463063341148</v>
+        <v>0.8677016070684909</v>
       </c>
       <c r="Q5">
-        <v>-8.980984778513518</v>
+        <v>-0.04137664257339684</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.019015219201</v>
+        <v>179.9586233552624</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7604463063130777</v>
+        <v>0.8677016070518208</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7604463063341147</v>
+        <v>0.8677016070684906</v>
       </c>
       <c r="Q6">
-        <v>-8.980984778513525</v>
+        <v>-0.04137664257339839</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.019015219201</v>
+        <v>179.9586233552624</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9611892257882306</v>
+        <v>0.9824348152599648</v>
       </c>
       <c r="O2">
-        <v>0.8500049525398483</v>
+        <v>0.8500049525413994</v>
       </c>
       <c r="P2">
-        <v>0.9459470461745229</v>
+        <v>0.9471207714712431</v>
       </c>
       <c r="Q2">
-        <v>24.73024965416854</v>
+        <v>25.60142185198898</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332195</v>
+        <v>-92.65381631331432</v>
       </c>
       <c r="S2">
-        <v>151.8017161126639</v>
+        <v>153.366617973685</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9249492145725791</v>
+        <v>0.9913954283789168</v>
       </c>
       <c r="O3">
-        <v>0.361720183503275</v>
+        <v>0.3617201835029473</v>
       </c>
       <c r="P3">
-        <v>0.7405935968722479</v>
+        <v>0.7663096063876198</v>
       </c>
       <c r="Q3">
-        <v>1.78316902584584</v>
+        <v>8.135925348634496</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241744</v>
+        <v>-129.0915432241828</v>
       </c>
       <c r="S3">
-        <v>160.1098218943982</v>
+        <v>169.4397496661967</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.925616777675333</v>
+        <v>3.123012277693343</v>
       </c>
       <c r="D4">
-        <v>2.484202367606449</v>
+        <v>3.11519441808184</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.3291180665233</v>
+        <v>36.06143958417515</v>
       </c>
       <c r="G4">
-        <v>28.68509811318178</v>
+        <v>35.97116671715141</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.7604463063228202</v>
+        <v>0.8677016070599995</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7604463063235449</v>
+        <v>0.8677016070604247</v>
       </c>
       <c r="Q4">
-        <v>-8.980984779835504</v>
+        <v>-0.04137664347883795</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.0190152197314</v>
+        <v>179.9586233561692</v>
       </c>
       <c r="T4">
-        <v>2.061230561857593</v>
+        <v>0.02232376349242262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.760446306313078</v>
+        <v>0.8677016070518211</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7604463063341148</v>
+        <v>0.8677016070684909</v>
       </c>
       <c r="Q5">
-        <v>-8.980984778513518</v>
+        <v>-0.04137664257339684</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.019015219201</v>
+        <v>179.9586233552624</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7604463063130777</v>
+        <v>0.8677016070518208</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7604463063341147</v>
+        <v>0.8677016070684906</v>
       </c>
       <c r="Q6">
-        <v>-8.980984778513525</v>
+        <v>-0.04137664257339839</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.019015219201</v>
+        <v>179.9586233552624</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9901519032090279</v>
+        <v>1.001254928872508</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304468</v>
+        <v>0.9581045791311112</v>
       </c>
       <c r="P2">
-        <v>0.9758832083543055</v>
+        <v>0.9784890187270643</v>
       </c>
       <c r="Q2">
-        <v>28.34967138228575</v>
+        <v>28.57074052076302</v>
       </c>
       <c r="R2">
-        <v>-91.5578997189799</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>150.0248189899185</v>
+        <v>150.6965434189615</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9678306986722549</v>
+        <v>1.017983768295149</v>
       </c>
       <c r="O3">
-        <v>0.813929903120267</v>
+        <v>0.813929903120252</v>
       </c>
       <c r="P3">
-        <v>0.8833757424122258</v>
+        <v>0.8942411772797356</v>
       </c>
       <c r="Q3">
-        <v>21.6611779074074</v>
+        <v>23.20577497238981</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736717</v>
+        <v>-99.65273561736515</v>
       </c>
       <c r="S3">
-        <v>149.7393528355663</v>
+        <v>153.3368535460605</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.212210603566378</v>
+        <v>0.999672479413406</v>
       </c>
       <c r="D4">
-        <v>0.9648235435470592</v>
+        <v>0.9857654821857441</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.99740236567135</v>
+        <v>11.54322350181581</v>
       </c>
       <c r="G4">
-        <v>11.14082265174767</v>
+        <v>11.38263932995561</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.904527764640961</v>
+        <v>0.9780408531991071</v>
       </c>
       <c r="O4">
-        <v>0.7019303077933663</v>
+        <v>0.7019303077933127</v>
       </c>
       <c r="P4">
-        <v>0.8520668705855896</v>
+        <v>0.8919842656035309</v>
       </c>
       <c r="Q4">
-        <v>19.79019327968254</v>
+        <v>20.79347597472952</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042335</v>
+        <v>-97.63434507041607</v>
       </c>
       <c r="S4">
-        <v>152.8016426976381</v>
+        <v>157.0015749470856</v>
       </c>
       <c r="T4">
-        <v>0.9268380544667822</v>
+        <v>0.02253991952388604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9045277646402714</v>
+        <v>0.9780408531967603</v>
       </c>
       <c r="O5">
-        <v>0.7019303077991509</v>
+        <v>0.7019303077990976</v>
       </c>
       <c r="P5">
-        <v>0.8520668705904115</v>
+        <v>0.8919842656082695</v>
       </c>
       <c r="Q5">
-        <v>19.79019328007265</v>
+        <v>20.79347597499548</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974261</v>
+        <v>-97.63434506973533</v>
       </c>
       <c r="S5">
-        <v>152.801642697708</v>
+        <v>157.0015749469754</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9045277646402714</v>
+        <v>0.9780408531967603</v>
       </c>
       <c r="O6">
-        <v>0.7019303077991509</v>
+        <v>0.7019303077990976</v>
       </c>
       <c r="P6">
-        <v>0.8520668705904114</v>
+        <v>0.8919842656082694</v>
       </c>
       <c r="Q6">
-        <v>19.79019328007265</v>
+        <v>20.79347597499549</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974259</v>
+        <v>-97.63434506973533</v>
       </c>
       <c r="S6">
-        <v>152.801642697708</v>
+        <v>157.0015749469754</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9901519032090279</v>
+        <v>1.001254928872508</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304468</v>
+        <v>0.9581045791311112</v>
       </c>
       <c r="P2">
-        <v>0.9758832083543055</v>
+        <v>0.9784890187270643</v>
       </c>
       <c r="Q2">
-        <v>28.34967138228575</v>
+        <v>28.57074052076302</v>
       </c>
       <c r="R2">
-        <v>-91.5578997189799</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>150.0248189899185</v>
+        <v>150.6965434189615</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9678306986722549</v>
+        <v>1.017983768295149</v>
       </c>
       <c r="O3">
-        <v>0.813929903120267</v>
+        <v>0.813929903120252</v>
       </c>
       <c r="P3">
-        <v>0.8833757424122258</v>
+        <v>0.8942411772797356</v>
       </c>
       <c r="Q3">
-        <v>21.6611779074074</v>
+        <v>23.20577497238981</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736717</v>
+        <v>-99.65273561736515</v>
       </c>
       <c r="S3">
-        <v>149.7393528355663</v>
+        <v>153.3368535460605</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.212210603566378</v>
+        <v>0.999672479413406</v>
       </c>
       <c r="D4">
-        <v>0.9648235435470592</v>
+        <v>0.9857654821857441</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.99740236567135</v>
+        <v>11.54322350181581</v>
       </c>
       <c r="G4">
-        <v>11.14082265174767</v>
+        <v>11.38263932995561</v>
       </c>
       <c r="H4">
-        <v>7.135173428419217</v>
+        <v>1.774960223874616</v>
       </c>
       <c r="I4">
-        <v>1.8795050187211</v>
+        <v>-777.3772962253469</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880286012</v>
       </c>
       <c r="K4">
-        <v>3.006397543768168</v>
+        <v>3.006397543844694</v>
       </c>
       <c r="L4">
-        <v>1.113751880233077</v>
+        <v>1.113751880228151</v>
       </c>
       <c r="M4">
-        <v>3.006397543745596</v>
+        <v>3.006397543754848</v>
       </c>
       <c r="N4">
-        <v>0.904527764640961</v>
+        <v>0.9780408531991071</v>
       </c>
       <c r="O4">
-        <v>0.7019303077933663</v>
+        <v>0.7019303077933127</v>
       </c>
       <c r="P4">
-        <v>0.8520668705855896</v>
+        <v>0.8919842656035309</v>
       </c>
       <c r="Q4">
-        <v>19.79019327968254</v>
+        <v>20.79347597472952</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042335</v>
+        <v>-97.63434507041607</v>
       </c>
       <c r="S4">
-        <v>152.8016426976381</v>
+        <v>157.0015749470856</v>
       </c>
       <c r="T4">
-        <v>0.9268380544667822</v>
+        <v>0.02253991952388604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9045277646402714</v>
+        <v>0.9780408531967603</v>
       </c>
       <c r="O5">
-        <v>0.7019303077991509</v>
+        <v>0.7019303077990976</v>
       </c>
       <c r="P5">
-        <v>0.8520668705904115</v>
+        <v>0.8919842656082695</v>
       </c>
       <c r="Q5">
-        <v>19.79019328007265</v>
+        <v>20.79347597499548</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974261</v>
+        <v>-97.63434506973533</v>
       </c>
       <c r="S5">
-        <v>152.801642697708</v>
+        <v>157.0015749469754</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9045277646402714</v>
+        <v>0.9780408531967603</v>
       </c>
       <c r="O6">
-        <v>0.7019303077991509</v>
+        <v>0.7019303077990976</v>
       </c>
       <c r="P6">
-        <v>0.8520668705904114</v>
+        <v>0.8919842656082694</v>
       </c>
       <c r="Q6">
-        <v>19.79019328007265</v>
+        <v>20.79347597499549</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974259</v>
+        <v>-97.63434506973533</v>
       </c>
       <c r="S6">
-        <v>152.801642697708</v>
+        <v>157.0015749469754</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,13 +10541,13 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.938031900957445</v>
       </c>
       <c r="P2">
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739706</v>
       </c>
       <c r="R2">
         <v>-91.13019952201601</v>
@@ -10600,19 +10600,19 @@
         <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.2917056037512914</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644389</v>
+        <v>0.8906876332644381</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062535</v>
+        <v>7.091324389062454</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550803</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726616</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937064</v>
+        <v>3.709154423937084</v>
       </c>
       <c r="D4">
-        <v>3.709154423937064</v>
+        <v>3.709154423937084</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251911</v>
+        <v>42.82962610251933</v>
       </c>
       <c r="G4">
-        <v>42.82962610251911</v>
+        <v>42.82962610251933</v>
       </c>
       <c r="H4">
-        <v>3.716460666901346</v>
+        <v>0.9244970634383849</v>
       </c>
       <c r="I4">
-        <v>1.92293885555933</v>
+        <v>-777.3783108350397</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570905</v>
+        <v>0.6277319163973603</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.898438698025181</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638739</v>
+        <v>0.6277319163591106</v>
       </c>
       <c r="M4">
-        <v>2.898438697960018</v>
+        <v>2.898438697969515</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032097</v>
+        <v>0.9526279648032092</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047562</v>
+        <v>0.9526279648047561</v>
       </c>
       <c r="Q4">
-        <v>-1.252562210716599E-11</v>
+        <v>-1.263941018501197E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999811</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.952627964794286</v>
+        <v>0.9526279647942854</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136802</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q5">
-        <v>4.605091044665124E-10</v>
+        <v>4.603946605591408E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952627964794286</v>
+        <v>0.9526279647942854</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136801</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q6">
-        <v>4.605113375040976E-10</v>
+        <v>4.603978881413023E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995311</v>
+        <v>179.9999999995313</v>
       </c>
     </row>
   </sheetData>
